--- a/Data/_testMultiChannelSWV/DPV Analysis/Analysis Files/10-0_1.xlsx
+++ b/Data/_testMultiChannelSWV/DPV Analysis/Analysis Files/10-0_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G126"/>
+  <dimension ref="A1:G102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,100 +477,92 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>-0.004</v>
+        <v>-0.1</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.03113952380952385</v>
+        <v>0.04983880952380955</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>0.03113952380952385</v>
+        <v>0.04983880952380955</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="2" t="inlineStr"/>
       <c r="F2" s="2" t="n">
-        <v>-0.036</v>
+        <v>-0.248</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>0.008820933333333322</v>
+        <v>0.8230169751844406</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>-0.008</v>
+        <v>-0.104</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>0.03684523809523813</v>
+        <v>0.05005857142857144</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>0.031522680952381</v>
+        <v>0.05005857142857144</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.005322557142857134</v>
+        <v>0</v>
       </c>
       <c r="E3" s="2" t="inlineStr"/>
       <c r="F3" s="2" t="n">
-        <v>-0.08799999999999999</v>
+        <v>-0.464</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>0.01009131904761904</v>
+        <v>0.0009703174603174353</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>-0.012</v>
+        <v>-0.108</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>0.03958809523809527</v>
+        <v>0.05018142857142858</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>0.03190583809523814</v>
+        <v>0.05018142857142858</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.007682257142857127</v>
-      </c>
-      <c r="E4" s="2" t="inlineStr"/>
-      <c r="F4" s="2" t="n">
-        <v>-0.248</v>
-      </c>
-      <c r="G4" s="2" t="n">
-        <v>0.8275593190476197</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="n"/>
+      <c r="F4" s="2" t="n"/>
+      <c r="G4" s="2" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>-0.016</v>
+        <v>-0.112</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>0.04044476190476193</v>
+        <v>0.05026238095238098</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>0.03228899523809528</v>
+        <v>0.05026238095238098</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.008155766666666654</v>
-      </c>
-      <c r="E5" s="2" t="inlineStr"/>
-      <c r="F5" s="2" t="n">
-        <v>-0.464</v>
-      </c>
-      <c r="G5" s="2" t="n">
-        <v>0.0009703174603174353</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="n"/>
+      <c r="F5" s="2" t="n"/>
+      <c r="G5" s="2" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>-0.02</v>
+        <v>-0.116</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>0.04068476190476193</v>
+        <v>0.05034571428571432</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>0.03267215238095243</v>
+        <v>0.05034571428571432</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.008012609523809507</v>
+        <v>0</v>
       </c>
       <c r="E6" s="2" t="n"/>
       <c r="F6" s="2" t="n"/>
@@ -578,16 +570,16 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>-0.024</v>
+        <v>-0.12</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>0.04146523809523812</v>
+        <v>0.05052047619047623</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>0.03305530952380957</v>
+        <v>0.05052047619047623</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.008409928571428554</v>
+        <v>0</v>
       </c>
       <c r="E7" s="2" t="n"/>
       <c r="F7" s="2" t="n"/>
@@ -595,16 +587,16 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>-0.028</v>
+        <v>-0.124</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>0.04196666666666669</v>
+        <v>0.05084047619047622</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>0.03343846666666671</v>
+        <v>0.05078716297786724</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.008528199999999979</v>
+        <v>5.331321260897831e-05</v>
       </c>
       <c r="E8" s="2" t="n"/>
       <c r="F8" s="2" t="n"/>
@@ -612,16 +604,16 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>-0.032</v>
+        <v>-0.128</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>0.04242000000000003</v>
+        <v>0.05146238095238099</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>0.03382162380952385</v>
+        <v>0.05105384976525825</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.008598376190476174</v>
+        <v>0.0004085311871227376</v>
       </c>
       <c r="E9" s="2" t="n"/>
       <c r="F9" s="2" t="n"/>
@@ -629,16 +621,16 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>-0.036</v>
+        <v>-0.132</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>0.04302571428571432</v>
+        <v>0.05234428571428575</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>0.034204780952381</v>
+        <v>0.05132053655264927</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.008820933333333322</v>
+        <v>0.001023749161636479</v>
       </c>
       <c r="E10" s="2" t="n"/>
       <c r="F10" s="2" t="n"/>
@@ -646,16 +638,16 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>-0.04</v>
+        <v>-0.136</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>0.0433566666666667</v>
+        <v>0.05342857142857146</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>0.03458793809523814</v>
+        <v>0.05158722334004028</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.008768728571428554</v>
+        <v>0.001841348088531189</v>
       </c>
       <c r="E11" s="2" t="n"/>
       <c r="F11" s="2" t="n"/>
@@ -663,16 +655,16 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>-0.044</v>
+        <v>-0.14</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>0.04367000000000004</v>
+        <v>0.05467904761904765</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>0.03497109523809529</v>
+        <v>0.05185391012743129</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.008698904761904748</v>
+        <v>0.002825137491616364</v>
       </c>
       <c r="E12" s="2" t="n"/>
       <c r="F12" s="2" t="n"/>
@@ -680,16 +672,16 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>-0.048</v>
+        <v>-0.144</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>0.0439866666666667</v>
+        <v>0.05634142857142861</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>0.03535425238095243</v>
+        <v>0.05212059691482231</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.008632414285714277</v>
+        <v>0.004220831656606305</v>
       </c>
       <c r="E13" s="2" t="n"/>
       <c r="F13" s="2" t="n"/>
@@ -697,16 +689,16 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>-0.052</v>
+        <v>-0.148</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>0.0444214285714286</v>
+        <v>0.05833047619047623</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>0.03573740952380957</v>
+        <v>0.05238728370221332</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.008684019047619028</v>
+        <v>0.005943192488262916</v>
       </c>
       <c r="E14" s="2" t="n"/>
       <c r="F14" s="2" t="n"/>
@@ -714,16 +706,16 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>-0.056</v>
+        <v>-0.152</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>0.04494904761904765</v>
+        <v>0.06097809523809528</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>0.03612056666666671</v>
+        <v>0.05265397048960433</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.008828480952380938</v>
+        <v>0.008324124748490945</v>
       </c>
       <c r="E15" s="2" t="n"/>
       <c r="F15" s="2" t="n"/>
@@ -731,16 +723,16 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>-0.06</v>
+        <v>-0.156</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>0.04559952380952384</v>
+        <v>0.06420000000000003</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>0.03650372380952385</v>
+        <v>0.05292065727699535</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.009095799999999987</v>
+        <v>0.01127934272300469</v>
       </c>
       <c r="E16" s="2" t="n"/>
       <c r="F16" s="2" t="n"/>
@@ -748,16 +740,16 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>-0.064</v>
+        <v>-0.16</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>0.04623285714285717</v>
+        <v>0.06838761904761909</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>0.036886880952381</v>
+        <v>0.05318734406438635</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.009345976190476175</v>
+        <v>0.01520027498323273</v>
       </c>
       <c r="E17" s="2" t="n"/>
       <c r="F17" s="2" t="n"/>
@@ -765,16 +757,16 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>-0.068</v>
+        <v>-0.164</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>0.04681857142857146</v>
+        <v>0.07367142857142861</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>0.03727003809523814</v>
+        <v>0.05345403085177737</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0.009548533333333317</v>
+        <v>0.02021739771965124</v>
       </c>
       <c r="E18" s="2" t="n"/>
       <c r="F18" s="2" t="n"/>
@@ -782,16 +774,16 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>-0.07199999999999999</v>
+        <v>-0.168</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>0.04727333333333336</v>
+        <v>0.08091476190476196</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>0.03765319523809529</v>
+        <v>0.05372071763916839</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0.009620138095238075</v>
+        <v>0.02719404426559358</v>
       </c>
       <c r="E19" s="2" t="n"/>
       <c r="F19" s="2" t="n"/>
@@ -799,16 +791,16 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>-0.076</v>
+        <v>-0.172</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>0.04783285714285718</v>
+        <v>0.09024952380952386</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>0.03803635238095243</v>
+        <v>0.05398740442655939</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0.009796504761904745</v>
+        <v>0.03626211938296447</v>
       </c>
       <c r="E20" s="2" t="n"/>
       <c r="F20" s="2" t="n"/>
@@ -816,16 +808,16 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>-0.08</v>
+        <v>-0.176</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>0.04845952380952384</v>
+        <v>0.1020833333333334</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>0.03841950952380957</v>
+        <v>0.05425409121395041</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0.01004001428571427</v>
+        <v>0.04782924211938299</v>
       </c>
       <c r="E21" s="2" t="n"/>
       <c r="F21" s="2" t="n"/>
@@ -833,16 +825,16 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>-0.08400000000000001</v>
+        <v>-0.18</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>0.04884476190476193</v>
+        <v>0.1176095238095239</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>0.03880266666666671</v>
+        <v>0.05452077800134142</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0.01004209523809522</v>
+        <v>0.06308874580818247</v>
       </c>
       <c r="E22" s="2" t="n"/>
       <c r="F22" s="2" t="n"/>
@@ -850,16 +842,16 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>-0.08799999999999999</v>
+        <v>-0.184</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>0.04927714285714289</v>
+        <v>0.1373561904761906</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>0.03918582380952386</v>
+        <v>0.05478746478873243</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>0.01009131904761904</v>
+        <v>0.08256872568745814</v>
       </c>
       <c r="E23" s="2" t="n"/>
       <c r="F23" s="2" t="n"/>
@@ -867,16 +859,16 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>-0.092</v>
+        <v>-0.188</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>0.0496366666666667</v>
+        <v>0.1623904761904763</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>0.039568980952381</v>
+        <v>0.05505415157612345</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>0.01006768571428571</v>
+        <v>0.1073363246143528</v>
       </c>
       <c r="E24" s="2" t="n"/>
       <c r="F24" s="2" t="n"/>
@@ -884,16 +876,16 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>-0.096</v>
+        <v>-0.192</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>0.04969809523809526</v>
+        <v>0.1936333333333334</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>0.03995213809523814</v>
+        <v>0.05532083836351446</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>0.009745957142857122</v>
+        <v>0.138312494969819</v>
       </c>
       <c r="E25" s="2" t="n"/>
       <c r="F25" s="2" t="n"/>
@@ -901,16 +893,16 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>-0.1</v>
+        <v>-0.196</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>0.04988523809523813</v>
+        <v>0.2314047619047621</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>0.04033529523809529</v>
+        <v>0.05558752515090547</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>0.009549942857142842</v>
+        <v>0.1758172367538566</v>
       </c>
       <c r="E26" s="2" t="n"/>
       <c r="F26" s="2" t="n"/>
@@ -918,16 +910,16 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>-0.104</v>
+        <v>-0.2</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>0.05005809523809528</v>
+        <v>0.2758714285714288</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>0.04071845238095242</v>
+        <v>0.05585421193829649</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>0.009339642857142852</v>
+        <v>0.2200172166331323</v>
       </c>
       <c r="E27" s="2" t="n"/>
       <c r="F27" s="2" t="n"/>
@@ -935,16 +927,16 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>-0.108</v>
+        <v>-0.204</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>0.05015619047619051</v>
+        <v>0.3274428571428574</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>0.04110160952380957</v>
+        <v>0.0561208987256875</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>0.009054580952380938</v>
+        <v>0.2713219584171699</v>
       </c>
       <c r="E28" s="2" t="n"/>
       <c r="F28" s="2" t="n"/>
@@ -952,16 +944,16 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>-0.112</v>
+        <v>-0.208</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>0.05026238095238098</v>
+        <v>0.3848000000000003</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>0.04148476666666671</v>
+        <v>0.05638758551307851</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>0.008777614285714268</v>
+        <v>0.3284124144869217</v>
       </c>
       <c r="E29" s="2" t="n"/>
       <c r="F29" s="2" t="n"/>
@@ -969,16 +961,16 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>-0.116</v>
+        <v>-0.212</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>0.05034571428571432</v>
+        <v>0.4468285714285717</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>0.04186792380952386</v>
+        <v>0.05665427230046953</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>0.008477790476190461</v>
+        <v>0.3901742991281022</v>
       </c>
       <c r="E30" s="2" t="n"/>
       <c r="F30" s="2" t="n"/>
@@ -986,16 +978,16 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>-0.12</v>
+        <v>-0.216</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>0.05052047619047623</v>
+        <v>0.5119619047619051</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>0.042251080952381</v>
+        <v>0.05692095908786054</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>0.008269395238095223</v>
+        <v>0.4550409456740445</v>
       </c>
       <c r="E31" s="2" t="n"/>
       <c r="F31" s="2" t="n"/>
@@ -1003,16 +995,16 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>-0.124</v>
+        <v>-0.22</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>0.05084047619047622</v>
+        <v>0.5781571428571433</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>0.04263423809523814</v>
+        <v>0.05718764587525155</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>0.008206238095238079</v>
+        <v>0.5209694969818917</v>
       </c>
       <c r="E32" s="2" t="n"/>
       <c r="F32" s="2" t="n"/>
@@ -1020,16 +1012,16 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>-0.128</v>
+        <v>-0.224</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>0.05146238095238099</v>
+        <v>0.6432428571428576</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>0.04301739523809529</v>
+        <v>0.05745433266264256</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>0.008444985714285702</v>
+        <v>0.585788524480215</v>
       </c>
       <c r="E33" s="2" t="n"/>
       <c r="F33" s="2" t="n"/>
@@ -1037,16 +1029,16 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>-0.132</v>
+        <v>-0.228</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>0.05234428571428575</v>
+        <v>0.7051333333333338</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>0.04340055238095243</v>
+        <v>0.05772101945003358</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>0.008943733333333315</v>
+        <v>0.6474123138833002</v>
       </c>
       <c r="E34" s="2" t="n"/>
       <c r="F34" s="2" t="n"/>
@@ -1054,16 +1046,16 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>-0.136</v>
+        <v>-0.232</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>0.05342857142857146</v>
+        <v>0.7608190476190482</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>0.04378370952380958</v>
+        <v>0.05798770623742459</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>0.009644861904761888</v>
+        <v>0.7028313413816236</v>
       </c>
       <c r="E35" s="2" t="n"/>
       <c r="F35" s="2" t="n"/>
@@ -1071,16 +1063,16 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>-0.14</v>
+        <v>-0.236</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>0.05467904761904765</v>
+        <v>0.8081047619047624</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>0.04416686666666672</v>
+        <v>0.0582543930248156</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>0.01051218095238093</v>
+        <v>0.7498503688799468</v>
       </c>
       <c r="E36" s="2" t="n"/>
       <c r="F36" s="2" t="n"/>
@@ -1088,16 +1080,16 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>-0.144</v>
+        <v>-0.24</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>0.05634142857142861</v>
+        <v>0.8451285714285721</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>0.04455002380952386</v>
+        <v>0.05852107981220662</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>0.01179140476190475</v>
+        <v>0.7866074916163655</v>
       </c>
       <c r="E37" s="2" t="n"/>
       <c r="F37" s="2" t="n"/>
@@ -1105,16 +1097,16 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>-0.148</v>
+        <v>-0.244</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>0.05833047619047623</v>
+        <v>0.8699761904761911</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>0.044933180952381</v>
+        <v>0.05878776659959763</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>0.01339729523809523</v>
+        <v>0.8111884238765935</v>
       </c>
       <c r="E38" s="2" t="n"/>
       <c r="F38" s="2" t="n"/>
@@ -1122,16 +1114,16 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>-0.152</v>
+        <v>-0.248</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>0.06097809523809528</v>
+        <v>0.8820714285714293</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>0.04531633809523815</v>
+        <v>0.05905445338698864</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>0.01566175714285713</v>
+        <v>0.8230169751844406</v>
       </c>
       <c r="E39" s="2" t="n"/>
       <c r="F39" s="2" t="n"/>
@@ -1139,16 +1131,16 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>-0.156</v>
+        <v>-0.252</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>0.06420000000000003</v>
+        <v>0.8819666666666672</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>0.04569949523809529</v>
+        <v>0.05932114017437966</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>0.01850050476190475</v>
+        <v>0.8226455264922876</v>
       </c>
       <c r="E40" s="2" t="n"/>
       <c r="F40" s="2" t="n"/>
@@ -1156,16 +1148,16 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>-0.16</v>
+        <v>-0.256</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>0.06838761904761909</v>
+        <v>0.8702571428571434</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>0.04608265238095243</v>
+        <v>0.05958782696177067</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>0.02230496666666665</v>
+        <v>0.8106693158953727</v>
       </c>
       <c r="E41" s="2" t="n"/>
       <c r="F41" s="2" t="n"/>
@@ -1173,16 +1165,16 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>-0.164</v>
+        <v>-0.26</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>0.07367142857142861</v>
+        <v>0.8493714285714291</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>0.04646580952380958</v>
+        <v>0.05985451374916168</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>0.02720561904761903</v>
+        <v>0.7895169148222674</v>
       </c>
       <c r="E42" s="2" t="n"/>
       <c r="F42" s="2" t="n"/>
@@ -1190,16 +1182,16 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>-0.168</v>
+        <v>-0.264</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>0.08091476190476196</v>
+        <v>0.8218619047619052</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>0.04684896666666671</v>
+        <v>0.0601212005365527</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>0.03406579523809525</v>
+        <v>0.7617407042253526</v>
       </c>
       <c r="E43" s="2" t="n"/>
       <c r="F43" s="2" t="n"/>
@@ -1207,16 +1199,16 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>-0.172</v>
+        <v>-0.268</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>0.09024952380952386</v>
+        <v>0.7905000000000004</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>0.04723212380952386</v>
+        <v>0.06038788732394371</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>0.0430174</v>
+        <v>0.7301121126760567</v>
       </c>
       <c r="E44" s="2" t="n"/>
       <c r="F44" s="2" t="n"/>
@@ -1224,16 +1216,16 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>-0.176</v>
+        <v>-0.272</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>0.1020833333333334</v>
+        <v>0.7583523809523813</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>0.047615280952381</v>
+        <v>0.06065457411133472</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>0.0544680523809524</v>
+        <v>0.6976978068410467</v>
       </c>
       <c r="E45" s="2" t="n"/>
       <c r="F45" s="2" t="n"/>
@@ -1241,16 +1233,16 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>-0.18</v>
+        <v>-0.276</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>0.1176095238095239</v>
+        <v>0.72762380952381</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>0.04799843809523814</v>
+        <v>0.06092126089872574</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>0.06961108571428574</v>
+        <v>0.6667025486250843</v>
       </c>
       <c r="E46" s="2" t="n"/>
       <c r="F46" s="2" t="n"/>
@@ -1258,16 +1250,16 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>-0.184</v>
+        <v>-0.28</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>0.1373561904761906</v>
+        <v>0.6997047619047625</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>0.04838159523809529</v>
+        <v>0.06118794768611675</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>0.08897459523809528</v>
+        <v>0.6385168142186457</v>
       </c>
       <c r="E47" s="2" t="n"/>
       <c r="F47" s="2" t="n"/>
@@ -1275,16 +1267,16 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>-0.188</v>
+        <v>-0.284</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>0.1623904761904763</v>
+        <v>0.6747952380952386</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>0.04876475238095243</v>
+        <v>0.06145463447350775</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>0.1136257238095238</v>
+        <v>0.6133406036217308</v>
       </c>
       <c r="E48" s="2" t="n"/>
       <c r="F48" s="2" t="n"/>
@@ -1292,16 +1284,16 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>-0.192</v>
+        <v>-0.288</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>0.1936333333333334</v>
+        <v>0.6521619047619052</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>0.04914790952380958</v>
+        <v>0.06172132126089877</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>0.1444854238095239</v>
+        <v>0.5904405835010064</v>
       </c>
       <c r="E49" s="2" t="n"/>
       <c r="F49" s="2" t="n"/>
@@ -1309,16 +1301,16 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>-0.196</v>
+        <v>-0.292</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>0.2314047619047621</v>
+        <v>0.6299428571428576</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>0.04953106666666672</v>
+        <v>0.06198800804828979</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>0.1818736952380953</v>
+        <v>0.5679548490945678</v>
       </c>
       <c r="E50" s="2" t="n"/>
       <c r="F50" s="2" t="n"/>
@@ -1326,16 +1318,16 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>-0.2</v>
+        <v>-0.296</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>0.2758714285714288</v>
+        <v>0.606171428571429</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>0.04991422380952386</v>
+        <v>0.0622546948356808</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>0.2259572047619049</v>
+        <v>0.5439167337357482</v>
       </c>
       <c r="E51" s="2" t="n"/>
       <c r="F51" s="2" t="n"/>
@@ -1343,16 +1335,16 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>-0.204</v>
+        <v>-0.3</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>0.3274428571428574</v>
+        <v>0.5788380952380956</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>0.050297380952381</v>
+        <v>0.06252138162307182</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>0.2771454761904764</v>
+        <v>0.5163167136150237</v>
       </c>
       <c r="E52" s="2" t="n"/>
       <c r="F52" s="2" t="n"/>
@@ -1360,16 +1352,16 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>-0.208</v>
+        <v>-0.304</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>0.3848000000000003</v>
+        <v>0.5470476190476193</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>0.05068053809523815</v>
+        <v>0.06278806841046283</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>0.3341194619047621</v>
+        <v>0.4842595506371565</v>
       </c>
       <c r="E53" s="2" t="n"/>
       <c r="F53" s="2" t="n"/>
@@ -1377,16 +1369,16 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>-0.212</v>
+        <v>-0.308</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>0.4468285714285717</v>
+        <v>0.5106428571428574</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>0.05106369523809529</v>
+        <v>0.06305475519785383</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>0.3957648761904765</v>
+        <v>0.4475881019450035</v>
       </c>
       <c r="E54" s="2" t="n"/>
       <c r="F54" s="2" t="n"/>
@@ -1394,16 +1386,16 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>-0.216</v>
+        <v>-0.312</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>0.5119619047619051</v>
+        <v>0.4702047619047622</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>0.05144685238095243</v>
+        <v>0.06332144198524485</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>0.4605150523809526</v>
+        <v>0.4068833199195174</v>
       </c>
       <c r="E55" s="2" t="n"/>
       <c r="F55" s="2" t="n"/>
@@ -1411,16 +1403,16 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>-0.22</v>
+        <v>-0.316</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>0.5781571428571433</v>
+        <v>0.4268476190476194</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>0.05183000952380958</v>
+        <v>0.06358812877263587</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>0.5263271333333337</v>
+        <v>0.3632594902749835</v>
       </c>
       <c r="E56" s="2" t="n"/>
       <c r="F56" s="2" t="n"/>
@@ -1428,16 +1420,16 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>-0.224</v>
+        <v>-0.32</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>0.6432428571428576</v>
+        <v>0.3820571428571431</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>0.05221316666666672</v>
+        <v>0.06385481556002688</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>0.5910296904761908</v>
+        <v>0.3182023272971162</v>
       </c>
       <c r="E57" s="2" t="n"/>
       <c r="F57" s="2" t="n"/>
@@ -1445,16 +1437,16 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>-0.228</v>
+        <v>-0.324</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>0.7051333333333338</v>
+        <v>0.337461904761905</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>0.05259632380952386</v>
+        <v>0.0641215023474179</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>0.65253700952381</v>
+        <v>0.2733404024144871</v>
       </c>
       <c r="E58" s="2" t="n"/>
       <c r="F58" s="2" t="n"/>
@@ -1462,16 +1454,16 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>-0.232</v>
+        <v>-0.328</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>0.7608190476190482</v>
+        <v>0.2944857142857145</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>0.052979480952381</v>
+        <v>0.0643881891348089</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>0.7078395666666671</v>
+        <v>0.2300975251509056</v>
       </c>
       <c r="E59" s="2" t="n"/>
       <c r="F59" s="2" t="n"/>
@@ -1479,16 +1471,16 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>-0.236</v>
+        <v>-0.332</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>0.8081047619047624</v>
+        <v>0.2544285714285716</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>0.05336263809523815</v>
+        <v>0.06465487592219991</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>0.7547421238095243</v>
+        <v>0.1897736955063716</v>
       </c>
       <c r="E60" s="2" t="n"/>
       <c r="F60" s="2" t="n"/>
@@ -1496,16 +1488,16 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>-0.24</v>
+        <v>-0.336</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>0.8451285714285721</v>
+        <v>0.2183000000000002</v>
       </c>
       <c r="C61" s="2" t="n">
-        <v>0.05374579523809529</v>
+        <v>0.06492156270959093</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>0.7913827761904768</v>
+        <v>0.1533784372904092</v>
       </c>
       <c r="E61" s="2" t="n"/>
       <c r="F61" s="2" t="n"/>
@@ -1513,16 +1505,16 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>-0.244</v>
+        <v>-0.34</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>0.8699761904761911</v>
+        <v>0.186852380952381</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>0.05412895238095243</v>
+        <v>0.06518824949698195</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>0.8158472380952387</v>
+        <v>0.1216641314553991</v>
       </c>
       <c r="E62" s="2" t="n"/>
       <c r="F62" s="2" t="n"/>
@@ -1530,16 +1522,16 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>-0.248</v>
+        <v>-0.344</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>0.8820714285714293</v>
+        <v>0.1601333333333334</v>
       </c>
       <c r="C63" s="2" t="n">
-        <v>0.05451210952380958</v>
+        <v>0.06545493628437296</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>0.8275593190476197</v>
+        <v>0.09467839704896044</v>
       </c>
       <c r="E63" s="2" t="n"/>
       <c r="F63" s="2" t="n"/>
@@ -1547,16 +1539,16 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>-0.252</v>
+        <v>-0.348</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>0.8819666666666672</v>
+        <v>0.1382495238095239</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>0.05489526666666672</v>
+        <v>0.06572162307176396</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>0.8270714000000006</v>
+        <v>0.07252790073775991</v>
       </c>
       <c r="E64" s="2" t="n"/>
       <c r="F64" s="2" t="n"/>
@@ -1564,16 +1556,16 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>-0.256</v>
+        <v>-0.352</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>0.8702571428571434</v>
+        <v>0.1205980952380953</v>
       </c>
       <c r="C65" s="2" t="n">
-        <v>0.05527842380952386</v>
+        <v>0.06598830985915498</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>0.8149787190476195</v>
+        <v>0.05460978537894032</v>
       </c>
       <c r="E65" s="2" t="n"/>
       <c r="F65" s="2" t="n"/>
@@ -1581,16 +1573,16 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>-0.26</v>
+        <v>-0.356</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>0.8493714285714291</v>
+        <v>0.1067557142857144</v>
       </c>
       <c r="C66" s="2" t="n">
-        <v>0.05566158095238101</v>
+        <v>0.06625499664654599</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>0.7937098476190481</v>
+        <v>0.04050071763916836</v>
       </c>
       <c r="E66" s="2" t="n"/>
       <c r="F66" s="2" t="n"/>
@@ -1598,16 +1590,16 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>-0.264</v>
+        <v>-0.36</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>0.8218619047619052</v>
+        <v>0.09623666666666673</v>
       </c>
       <c r="C67" s="2" t="n">
-        <v>0.05604473809523815</v>
+        <v>0.06652168343393701</v>
       </c>
       <c r="D67" s="2" t="n">
-        <v>0.7658171666666671</v>
+        <v>0.02971498323272972</v>
       </c>
       <c r="E67" s="2" t="n"/>
       <c r="F67" s="2" t="n"/>
@@ -1615,16 +1607,16 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>-0.268</v>
+        <v>-0.364</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>0.7905000000000004</v>
+        <v>0.0883485714285715</v>
       </c>
       <c r="C68" s="2" t="n">
-        <v>0.05642789523809529</v>
+        <v>0.06678837022132803</v>
       </c>
       <c r="D68" s="2" t="n">
-        <v>0.7340721047619051</v>
+        <v>0.02156020120724347</v>
       </c>
       <c r="E68" s="2" t="n"/>
       <c r="F68" s="2" t="n"/>
@@ -1632,16 +1624,16 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>-0.272</v>
+        <v>-0.368</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>0.7583523809523813</v>
+        <v>0.08232095238095244</v>
       </c>
       <c r="C69" s="2" t="n">
-        <v>0.05681105238095244</v>
+        <v>0.06705505700871903</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>0.7015413285714289</v>
+        <v>0.01526589537223341</v>
       </c>
       <c r="E69" s="2" t="n"/>
       <c r="F69" s="2" t="n"/>
@@ -1649,16 +1641,16 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>-0.276</v>
+        <v>-0.372</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>0.72762380952381</v>
+        <v>0.07807285714285719</v>
       </c>
       <c r="C70" s="2" t="n">
-        <v>0.05719420952380957</v>
+        <v>0.06732174379611006</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>0.6704296000000004</v>
+        <v>0.01075111334674714</v>
       </c>
       <c r="E70" s="2" t="n"/>
       <c r="F70" s="2" t="n"/>
@@ -1666,16 +1658,16 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>-0.28</v>
+        <v>-0.376</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>0.6997047619047625</v>
+        <v>0.07488428571428578</v>
       </c>
       <c r="C71" s="2" t="n">
-        <v>0.05757736666666673</v>
+        <v>0.06758843058350106</v>
       </c>
       <c r="D71" s="2" t="n">
-        <v>0.6421273952380958</v>
+        <v>0.00729585513078472</v>
       </c>
       <c r="E71" s="2" t="n"/>
       <c r="F71" s="2" t="n"/>
@@ -1683,16 +1675,16 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>-0.284</v>
+        <v>-0.38</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>0.6747952380952386</v>
+        <v>0.07261904761904768</v>
       </c>
       <c r="C72" s="2" t="n">
-        <v>0.05796052380952386</v>
+        <v>0.06785511737089207</v>
       </c>
       <c r="D72" s="2" t="n">
-        <v>0.6168347142857147</v>
+        <v>0.004763930248155607</v>
       </c>
       <c r="E72" s="2" t="n"/>
       <c r="F72" s="2" t="n"/>
@@ -1700,16 +1692,16 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>-0.288</v>
+        <v>-0.384</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>0.6521619047619052</v>
+        <v>0.07124476190476196</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>0.058343680952381</v>
+        <v>0.06812180415828309</v>
       </c>
       <c r="D73" s="2" t="n">
-        <v>0.5938182238095242</v>
+        <v>0.003122957746478874</v>
       </c>
       <c r="E73" s="2" t="n"/>
       <c r="F73" s="2" t="n"/>
@@ -1717,16 +1709,16 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>-0.292</v>
+        <v>-0.388</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>0.6299428571428576</v>
+        <v>0.07031428571428577</v>
       </c>
       <c r="C74" s="2" t="n">
-        <v>0.05872683809523815</v>
+        <v>0.0683884909456741</v>
       </c>
       <c r="D74" s="2" t="n">
-        <v>0.5712160190476194</v>
+        <v>0.001925794768611669</v>
       </c>
       <c r="E74" s="2" t="n"/>
       <c r="F74" s="2" t="n"/>
@@ -1734,16 +1726,16 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>-0.296</v>
+        <v>-0.392</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>0.606171428571429</v>
+        <v>0.06958571428571433</v>
       </c>
       <c r="C75" s="2" t="n">
-        <v>0.05910999523809529</v>
+        <v>0.06865517773306512</v>
       </c>
       <c r="D75" s="2" t="n">
-        <v>0.5470614333333337</v>
+        <v>0.0009305365526492138</v>
       </c>
       <c r="E75" s="2" t="n"/>
       <c r="F75" s="2" t="n"/>
@@ -1751,16 +1743,16 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>-0.3</v>
+        <v>-0.396</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>0.5788380952380956</v>
+        <v>0.06928523809523815</v>
       </c>
       <c r="C76" s="2" t="n">
-        <v>0.05949315238095243</v>
+        <v>0.06892186452045612</v>
       </c>
       <c r="D76" s="2" t="n">
-        <v>0.5193449428571432</v>
+        <v>0.0003633735747820277</v>
       </c>
       <c r="E76" s="2" t="n"/>
       <c r="F76" s="2" t="n"/>
@@ -1768,16 +1760,16 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>-0.304</v>
+        <v>-0.4</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>0.5470476190476193</v>
+        <v>0.06929095238095243</v>
       </c>
       <c r="C77" s="2" t="n">
-        <v>0.05987630952380958</v>
+        <v>0.06918855130784714</v>
       </c>
       <c r="D77" s="2" t="n">
-        <v>0.4871713095238098</v>
+        <v>0.0001024010731052877</v>
       </c>
       <c r="E77" s="2" t="n"/>
       <c r="F77" s="2" t="n"/>
@@ -1785,16 +1777,16 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>-0.308</v>
+        <v>-0.404</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>0.5106428571428574</v>
+        <v>0.06945523809523815</v>
       </c>
       <c r="C78" s="2" t="n">
-        <v>0.06025946666666672</v>
+        <v>0.06945523809523815</v>
       </c>
       <c r="D78" s="2" t="n">
-        <v>0.4503833904761907</v>
+        <v>0</v>
       </c>
       <c r="E78" s="2" t="n"/>
       <c r="F78" s="2" t="n"/>
@@ -1802,16 +1794,16 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>-0.312</v>
+        <v>-0.408</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>0.4702047619047622</v>
+        <v>0.07001857142857149</v>
       </c>
       <c r="C79" s="2" t="n">
-        <v>0.06064262380952386</v>
+        <v>0.07001857142857149</v>
       </c>
       <c r="D79" s="2" t="n">
-        <v>0.4095621380952384</v>
+        <v>0</v>
       </c>
       <c r="E79" s="2" t="n"/>
       <c r="F79" s="2" t="n"/>
@@ -1819,16 +1811,16 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>-0.316</v>
+        <v>-0.412</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>0.4268476190476194</v>
+        <v>0.07059000000000004</v>
       </c>
       <c r="C80" s="2" t="n">
-        <v>0.06102578095238101</v>
+        <v>0.07059000000000004</v>
       </c>
       <c r="D80" s="2" t="n">
-        <v>0.3658218380952384</v>
+        <v>0</v>
       </c>
       <c r="E80" s="2" t="n"/>
       <c r="F80" s="2" t="n"/>
@@ -1836,16 +1828,16 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>-0.32</v>
+        <v>-0.416</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>0.3820571428571431</v>
+        <v>0.07122714285714291</v>
       </c>
       <c r="C81" s="2" t="n">
-        <v>0.06140893809523815</v>
+        <v>0.07122714285714291</v>
       </c>
       <c r="D81" s="2" t="n">
-        <v>0.3206482047619049</v>
+        <v>0</v>
       </c>
       <c r="E81" s="2" t="n"/>
       <c r="F81" s="2" t="n"/>
@@ -1853,16 +1845,16 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>-0.324</v>
+        <v>-0.42</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>0.337461904761905</v>
+        <v>0.07184761904761909</v>
       </c>
       <c r="C82" s="2" t="n">
-        <v>0.0617920952380953</v>
+        <v>0.07184761904761909</v>
       </c>
       <c r="D82" s="2" t="n">
-        <v>0.2756698095238097</v>
+        <v>0</v>
       </c>
       <c r="E82" s="2" t="n"/>
       <c r="F82" s="2" t="n"/>
@@ -1870,16 +1862,16 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>-0.328</v>
+        <v>-0.424</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>0.2944857142857145</v>
+        <v>0.07279047619047624</v>
       </c>
       <c r="C83" s="2" t="n">
-        <v>0.06217525238095244</v>
+        <v>0.07279047619047624</v>
       </c>
       <c r="D83" s="2" t="n">
-        <v>0.232310461904762</v>
+        <v>0</v>
       </c>
       <c r="E83" s="2" t="n"/>
       <c r="F83" s="2" t="n"/>
@@ -1887,16 +1879,16 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>-0.332</v>
+        <v>-0.428</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>0.2544285714285716</v>
+        <v>0.07377238095238101</v>
       </c>
       <c r="C84" s="2" t="n">
-        <v>0.06255840952380957</v>
+        <v>0.07377238095238101</v>
       </c>
       <c r="D84" s="2" t="n">
-        <v>0.191870161904762</v>
+        <v>0</v>
       </c>
       <c r="E84" s="2" t="n"/>
       <c r="F84" s="2" t="n"/>
@@ -1904,16 +1896,16 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>-0.336</v>
+        <v>-0.432</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>0.2183000000000002</v>
+        <v>0.07476809523809529</v>
       </c>
       <c r="C85" s="2" t="n">
-        <v>0.06294156666666673</v>
+        <v>0.07476809523809529</v>
       </c>
       <c r="D85" s="2" t="n">
-        <v>0.1553584333333334</v>
+        <v>0</v>
       </c>
       <c r="E85" s="2" t="n"/>
       <c r="F85" s="2" t="n"/>
@@ -1921,16 +1913,16 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>-0.34</v>
+        <v>-0.436</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>0.186852380952381</v>
+        <v>0.07577904761904766</v>
       </c>
       <c r="C86" s="2" t="n">
-        <v>0.06332472380952386</v>
+        <v>0.07596698412698417</v>
       </c>
       <c r="D86" s="2" t="n">
-        <v>0.1235276571428572</v>
+        <v>-0.000187936507936512</v>
       </c>
       <c r="E86" s="2" t="n"/>
       <c r="F86" s="2" t="n"/>
@@ -1938,16 +1930,16 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>-0.344</v>
+        <v>-0.44</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>0.1601333333333334</v>
+        <v>0.07721190476190481</v>
       </c>
       <c r="C87" s="2" t="n">
-        <v>0.063707880952381</v>
+        <v>0.07716587301587306</v>
       </c>
       <c r="D87" s="2" t="n">
-        <v>0.0964254523809524</v>
+        <v>4.60317460317522e-05</v>
       </c>
       <c r="E87" s="2" t="n"/>
       <c r="F87" s="2" t="n"/>
@@ -1955,16 +1947,16 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>-0.348</v>
+        <v>-0.444</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>0.1382495238095239</v>
+        <v>0.07852952380952387</v>
       </c>
       <c r="C88" s="2" t="n">
-        <v>0.06409103809523815</v>
+        <v>0.07836476190476195</v>
       </c>
       <c r="D88" s="2" t="n">
-        <v>0.07415848571428572</v>
+        <v>0.0001647619047619175</v>
       </c>
       <c r="E88" s="2" t="n"/>
       <c r="F88" s="2" t="n"/>
@@ -1972,16 +1964,16 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>-0.352</v>
+        <v>-0.448</v>
       </c>
       <c r="B89" s="2" t="n">
-        <v>0.1205980952380953</v>
+        <v>0.08006952380952387</v>
       </c>
       <c r="C89" s="2" t="n">
-        <v>0.06447419523809529</v>
+        <v>0.07956365079365087</v>
       </c>
       <c r="D89" s="2" t="n">
-        <v>0.0561239</v>
+        <v>0.0005058730158730013</v>
       </c>
       <c r="E89" s="2" t="n"/>
       <c r="F89" s="2" t="n"/>
@@ -1989,16 +1981,16 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>-0.356</v>
+        <v>-0.452</v>
       </c>
       <c r="B90" s="2" t="n">
-        <v>0.1067557142857144</v>
+        <v>0.08168476190476195</v>
       </c>
       <c r="C90" s="2" t="n">
-        <v>0.06485735238095243</v>
+        <v>0.08076253968253976</v>
       </c>
       <c r="D90" s="2" t="n">
-        <v>0.04189836190476193</v>
+        <v>0.0009222222222221993</v>
       </c>
       <c r="E90" s="2" t="n"/>
       <c r="F90" s="2" t="n"/>
@@ -2006,16 +1998,16 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>-0.36</v>
+        <v>-0.456</v>
       </c>
       <c r="B91" s="2" t="n">
-        <v>0.09623666666666673</v>
+        <v>0.08289047619047624</v>
       </c>
       <c r="C91" s="2" t="n">
-        <v>0.06524050952380958</v>
+        <v>0.08196142857142864</v>
       </c>
       <c r="D91" s="2" t="n">
-        <v>0.03099615714285715</v>
+        <v>0.0009290476190475933</v>
       </c>
       <c r="E91" s="2" t="n"/>
       <c r="F91" s="2" t="n"/>
@@ -2023,16 +2015,16 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>-0.364</v>
+        <v>-0.46</v>
       </c>
       <c r="B92" s="2" t="n">
-        <v>0.0883485714285715</v>
+        <v>0.08409619047619052</v>
       </c>
       <c r="C92" s="2" t="n">
-        <v>0.06562366666666672</v>
+        <v>0.08316031746031753</v>
       </c>
       <c r="D92" s="2" t="n">
-        <v>0.02272490476190478</v>
+        <v>0.0009358730158729872</v>
       </c>
       <c r="E92" s="2" t="n"/>
       <c r="F92" s="2" t="n"/>
@@ -2040,16 +2032,16 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>-0.368</v>
+        <v>-0.464</v>
       </c>
       <c r="B93" s="2" t="n">
-        <v>0.08232095238095244</v>
+        <v>0.08532952380952386</v>
       </c>
       <c r="C93" s="2" t="n">
-        <v>0.06600682380952387</v>
+        <v>0.08435920634920642</v>
       </c>
       <c r="D93" s="2" t="n">
-        <v>0.01631412857142857</v>
+        <v>0.0009703174603174353</v>
       </c>
       <c r="E93" s="2" t="n"/>
       <c r="F93" s="2" t="n"/>
@@ -2057,16 +2049,16 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>-0.372</v>
+        <v>-0.468</v>
       </c>
       <c r="B94" s="2" t="n">
-        <v>0.07807285714285719</v>
+        <v>0.08630761904761911</v>
       </c>
       <c r="C94" s="2" t="n">
-        <v>0.06638998095238101</v>
+        <v>0.08555809523809534</v>
       </c>
       <c r="D94" s="2" t="n">
-        <v>0.01168287619047619</v>
+        <v>0.0007495238095237694</v>
       </c>
       <c r="E94" s="2" t="n"/>
       <c r="F94" s="2" t="n"/>
@@ -2074,16 +2066,16 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>-0.376</v>
+        <v>-0.472</v>
       </c>
       <c r="B95" s="2" t="n">
-        <v>0.07488428571428578</v>
+        <v>0.08745809523809529</v>
       </c>
       <c r="C95" s="2" t="n">
-        <v>0.06677313809523815</v>
+        <v>0.0867569841269842</v>
       </c>
       <c r="D95" s="2" t="n">
-        <v>0.008111147619047632</v>
+        <v>0.0007011111111110968</v>
       </c>
       <c r="E95" s="2" t="n"/>
       <c r="F95" s="2" t="n"/>
@@ -2091,16 +2083,16 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>-0.38</v>
+        <v>-0.476</v>
       </c>
       <c r="B96" s="2" t="n">
-        <v>0.07261904761904768</v>
+        <v>0.0886376190476191</v>
       </c>
       <c r="C96" s="2" t="n">
-        <v>0.0671562952380953</v>
+        <v>0.08795587301587311</v>
       </c>
       <c r="D96" s="2" t="n">
-        <v>0.005462752380952382</v>
+        <v>0.0006817460317459917</v>
       </c>
       <c r="E96" s="2" t="n"/>
       <c r="F96" s="2" t="n"/>
@@ -2108,16 +2100,16 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>-0.384</v>
+        <v>-0.48</v>
       </c>
       <c r="B97" s="2" t="n">
-        <v>0.07124476190476196</v>
+        <v>0.08951142857142863</v>
       </c>
       <c r="C97" s="2" t="n">
-        <v>0.06753945238095244</v>
+        <v>0.089154761904762</v>
       </c>
       <c r="D97" s="2" t="n">
-        <v>0.003705309523809527</v>
+        <v>0.0003566666666666302</v>
       </c>
       <c r="E97" s="2" t="n"/>
       <c r="F97" s="2" t="n"/>
@@ -2125,16 +2117,16 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>-0.388</v>
+        <v>-0.484</v>
       </c>
       <c r="B98" s="2" t="n">
-        <v>0.07031428571428577</v>
+        <v>0.09053428571428578</v>
       </c>
       <c r="C98" s="2" t="n">
-        <v>0.06792260952380959</v>
+        <v>0.09035365079365089</v>
       </c>
       <c r="D98" s="2" t="n">
-        <v>0.002391676190476186</v>
+        <v>0.0001806349206348867</v>
       </c>
       <c r="E98" s="2" t="n"/>
       <c r="F98" s="2" t="n"/>
@@ -2142,16 +2134,16 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>-0.392</v>
+        <v>-0.488</v>
       </c>
       <c r="B99" s="2" t="n">
-        <v>0.06958571428571433</v>
+        <v>0.09158047619047627</v>
       </c>
       <c r="C99" s="2" t="n">
-        <v>0.06830576666666673</v>
+        <v>0.09155253968253978</v>
       </c>
       <c r="D99" s="2" t="n">
-        <v>0.001279947619047608</v>
+        <v>2.793650793649072e-05</v>
       </c>
       <c r="E99" s="2" t="n"/>
       <c r="F99" s="2" t="n"/>
@@ -2159,16 +2151,16 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>-0.396</v>
+        <v>-0.492</v>
       </c>
       <c r="B100" s="2" t="n">
-        <v>0.06928523809523815</v>
+        <v>0.09275142857142869</v>
       </c>
       <c r="C100" s="2" t="n">
-        <v>0.06868892380952386</v>
+        <v>0.09275142857142869</v>
       </c>
       <c r="D100" s="2" t="n">
-        <v>0.0005963142857142861</v>
+        <v>0</v>
       </c>
       <c r="E100" s="2" t="n"/>
       <c r="F100" s="2" t="n"/>
@@ -2176,16 +2168,16 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>-0.4</v>
+        <v>-0.496</v>
       </c>
       <c r="B101" s="2" t="n">
-        <v>0.06929095238095243</v>
+        <v>0.09399428571428588</v>
       </c>
       <c r="C101" s="2" t="n">
-        <v>0.06907208095238102</v>
+        <v>0.09399428571428588</v>
       </c>
       <c r="D101" s="2" t="n">
-        <v>0.00021887142857141</v>
+        <v>0</v>
       </c>
       <c r="E101" s="2" t="n"/>
       <c r="F101" s="2" t="n"/>
@@ -2193,13 +2185,13 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>-0.404</v>
+        <v>-0.5</v>
       </c>
       <c r="B102" s="2" t="n">
-        <v>0.06945523809523815</v>
+        <v>0.09528904761904783</v>
       </c>
       <c r="C102" s="2" t="n">
-        <v>0.06945523809523815</v>
+        <v>0.09528904761904783</v>
       </c>
       <c r="D102" s="2" t="n">
         <v>0</v>
@@ -2207,414 +2199,6 @@
       <c r="E102" s="2" t="n"/>
       <c r="F102" s="2" t="n"/>
       <c r="G102" s="2" t="n"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="2" t="n">
-        <v>-0.408</v>
-      </c>
-      <c r="B103" s="2" t="n">
-        <v>0.07001857142857149</v>
-      </c>
-      <c r="C103" s="2" t="n">
-        <v>0.07001857142857149</v>
-      </c>
-      <c r="D103" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E103" s="2" t="n"/>
-      <c r="F103" s="2" t="n"/>
-      <c r="G103" s="2" t="n"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="2" t="n">
-        <v>-0.412</v>
-      </c>
-      <c r="B104" s="2" t="n">
-        <v>0.07059000000000004</v>
-      </c>
-      <c r="C104" s="2" t="n">
-        <v>0.07059000000000004</v>
-      </c>
-      <c r="D104" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E104" s="2" t="n"/>
-      <c r="F104" s="2" t="n"/>
-      <c r="G104" s="2" t="n"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="2" t="n">
-        <v>-0.416</v>
-      </c>
-      <c r="B105" s="2" t="n">
-        <v>0.07122714285714291</v>
-      </c>
-      <c r="C105" s="2" t="n">
-        <v>0.07122714285714291</v>
-      </c>
-      <c r="D105" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E105" s="2" t="n"/>
-      <c r="F105" s="2" t="n"/>
-      <c r="G105" s="2" t="n"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="2" t="n">
-        <v>-0.42</v>
-      </c>
-      <c r="B106" s="2" t="n">
-        <v>0.07184761904761909</v>
-      </c>
-      <c r="C106" s="2" t="n">
-        <v>0.07184761904761909</v>
-      </c>
-      <c r="D106" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E106" s="2" t="n"/>
-      <c r="F106" s="2" t="n"/>
-      <c r="G106" s="2" t="n"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="2" t="n">
-        <v>-0.424</v>
-      </c>
-      <c r="B107" s="2" t="n">
-        <v>0.07279047619047624</v>
-      </c>
-      <c r="C107" s="2" t="n">
-        <v>0.07279047619047624</v>
-      </c>
-      <c r="D107" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E107" s="2" t="n"/>
-      <c r="F107" s="2" t="n"/>
-      <c r="G107" s="2" t="n"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="2" t="n">
-        <v>-0.428</v>
-      </c>
-      <c r="B108" s="2" t="n">
-        <v>0.07377238095238101</v>
-      </c>
-      <c r="C108" s="2" t="n">
-        <v>0.07377238095238101</v>
-      </c>
-      <c r="D108" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E108" s="2" t="n"/>
-      <c r="F108" s="2" t="n"/>
-      <c r="G108" s="2" t="n"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="2" t="n">
-        <v>-0.432</v>
-      </c>
-      <c r="B109" s="2" t="n">
-        <v>0.07476809523809529</v>
-      </c>
-      <c r="C109" s="2" t="n">
-        <v>0.07476809523809529</v>
-      </c>
-      <c r="D109" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E109" s="2" t="n"/>
-      <c r="F109" s="2" t="n"/>
-      <c r="G109" s="2" t="n"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="2" t="n">
-        <v>-0.436</v>
-      </c>
-      <c r="B110" s="2" t="n">
-        <v>0.07577904761904766</v>
-      </c>
-      <c r="C110" s="2" t="n">
-        <v>0.07596698412698417</v>
-      </c>
-      <c r="D110" s="2" t="n">
-        <v>-0.000187936507936512</v>
-      </c>
-      <c r="E110" s="2" t="n"/>
-      <c r="F110" s="2" t="n"/>
-      <c r="G110" s="2" t="n"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="2" t="n">
-        <v>-0.44</v>
-      </c>
-      <c r="B111" s="2" t="n">
-        <v>0.07721190476190481</v>
-      </c>
-      <c r="C111" s="2" t="n">
-        <v>0.07716587301587306</v>
-      </c>
-      <c r="D111" s="2" t="n">
-        <v>4.60317460317522e-05</v>
-      </c>
-      <c r="E111" s="2" t="n"/>
-      <c r="F111" s="2" t="n"/>
-      <c r="G111" s="2" t="n"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="2" t="n">
-        <v>-0.444</v>
-      </c>
-      <c r="B112" s="2" t="n">
-        <v>0.07852952380952387</v>
-      </c>
-      <c r="C112" s="2" t="n">
-        <v>0.07836476190476195</v>
-      </c>
-      <c r="D112" s="2" t="n">
-        <v>0.0001647619047619175</v>
-      </c>
-      <c r="E112" s="2" t="n"/>
-      <c r="F112" s="2" t="n"/>
-      <c r="G112" s="2" t="n"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="2" t="n">
-        <v>-0.448</v>
-      </c>
-      <c r="B113" s="2" t="n">
-        <v>0.08006952380952387</v>
-      </c>
-      <c r="C113" s="2" t="n">
-        <v>0.07956365079365087</v>
-      </c>
-      <c r="D113" s="2" t="n">
-        <v>0.0005058730158730013</v>
-      </c>
-      <c r="E113" s="2" t="n"/>
-      <c r="F113" s="2" t="n"/>
-      <c r="G113" s="2" t="n"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="2" t="n">
-        <v>-0.452</v>
-      </c>
-      <c r="B114" s="2" t="n">
-        <v>0.08168476190476195</v>
-      </c>
-      <c r="C114" s="2" t="n">
-        <v>0.08076253968253976</v>
-      </c>
-      <c r="D114" s="2" t="n">
-        <v>0.0009222222222221993</v>
-      </c>
-      <c r="E114" s="2" t="n"/>
-      <c r="F114" s="2" t="n"/>
-      <c r="G114" s="2" t="n"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="2" t="n">
-        <v>-0.456</v>
-      </c>
-      <c r="B115" s="2" t="n">
-        <v>0.08289047619047624</v>
-      </c>
-      <c r="C115" s="2" t="n">
-        <v>0.08196142857142864</v>
-      </c>
-      <c r="D115" s="2" t="n">
-        <v>0.0009290476190475933</v>
-      </c>
-      <c r="E115" s="2" t="n"/>
-      <c r="F115" s="2" t="n"/>
-      <c r="G115" s="2" t="n"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="2" t="n">
-        <v>-0.46</v>
-      </c>
-      <c r="B116" s="2" t="n">
-        <v>0.08409619047619052</v>
-      </c>
-      <c r="C116" s="2" t="n">
-        <v>0.08316031746031753</v>
-      </c>
-      <c r="D116" s="2" t="n">
-        <v>0.0009358730158729872</v>
-      </c>
-      <c r="E116" s="2" t="n"/>
-      <c r="F116" s="2" t="n"/>
-      <c r="G116" s="2" t="n"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="2" t="n">
-        <v>-0.464</v>
-      </c>
-      <c r="B117" s="2" t="n">
-        <v>0.08532952380952386</v>
-      </c>
-      <c r="C117" s="2" t="n">
-        <v>0.08435920634920642</v>
-      </c>
-      <c r="D117" s="2" t="n">
-        <v>0.0009703174603174353</v>
-      </c>
-      <c r="E117" s="2" t="n"/>
-      <c r="F117" s="2" t="n"/>
-      <c r="G117" s="2" t="n"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="2" t="n">
-        <v>-0.468</v>
-      </c>
-      <c r="B118" s="2" t="n">
-        <v>0.08630761904761911</v>
-      </c>
-      <c r="C118" s="2" t="n">
-        <v>0.08555809523809534</v>
-      </c>
-      <c r="D118" s="2" t="n">
-        <v>0.0007495238095237694</v>
-      </c>
-      <c r="E118" s="2" t="n"/>
-      <c r="F118" s="2" t="n"/>
-      <c r="G118" s="2" t="n"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="2" t="n">
-        <v>-0.472</v>
-      </c>
-      <c r="B119" s="2" t="n">
-        <v>0.08745809523809529</v>
-      </c>
-      <c r="C119" s="2" t="n">
-        <v>0.0867569841269842</v>
-      </c>
-      <c r="D119" s="2" t="n">
-        <v>0.0007011111111110968</v>
-      </c>
-      <c r="E119" s="2" t="n"/>
-      <c r="F119" s="2" t="n"/>
-      <c r="G119" s="2" t="n"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="2" t="n">
-        <v>-0.476</v>
-      </c>
-      <c r="B120" s="2" t="n">
-        <v>0.0886376190476191</v>
-      </c>
-      <c r="C120" s="2" t="n">
-        <v>0.08795587301587311</v>
-      </c>
-      <c r="D120" s="2" t="n">
-        <v>0.0006817460317459917</v>
-      </c>
-      <c r="E120" s="2" t="n"/>
-      <c r="F120" s="2" t="n"/>
-      <c r="G120" s="2" t="n"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="2" t="n">
-        <v>-0.48</v>
-      </c>
-      <c r="B121" s="2" t="n">
-        <v>0.08951142857142863</v>
-      </c>
-      <c r="C121" s="2" t="n">
-        <v>0.089154761904762</v>
-      </c>
-      <c r="D121" s="2" t="n">
-        <v>0.0003566666666666302</v>
-      </c>
-      <c r="E121" s="2" t="n"/>
-      <c r="F121" s="2" t="n"/>
-      <c r="G121" s="2" t="n"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="2" t="n">
-        <v>-0.484</v>
-      </c>
-      <c r="B122" s="2" t="n">
-        <v>0.09053428571428578</v>
-      </c>
-      <c r="C122" s="2" t="n">
-        <v>0.09035365079365089</v>
-      </c>
-      <c r="D122" s="2" t="n">
-        <v>0.0001806349206348867</v>
-      </c>
-      <c r="E122" s="2" t="n"/>
-      <c r="F122" s="2" t="n"/>
-      <c r="G122" s="2" t="n"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="2" t="n">
-        <v>-0.488</v>
-      </c>
-      <c r="B123" s="2" t="n">
-        <v>0.09158047619047627</v>
-      </c>
-      <c r="C123" s="2" t="n">
-        <v>0.09155253968253978</v>
-      </c>
-      <c r="D123" s="2" t="n">
-        <v>2.793650793649072e-05</v>
-      </c>
-      <c r="E123" s="2" t="n"/>
-      <c r="F123" s="2" t="n"/>
-      <c r="G123" s="2" t="n"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="2" t="n">
-        <v>-0.492</v>
-      </c>
-      <c r="B124" s="2" t="n">
-        <v>0.09275142857142869</v>
-      </c>
-      <c r="C124" s="2" t="n">
-        <v>0.09275142857142869</v>
-      </c>
-      <c r="D124" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E124" s="2" t="n"/>
-      <c r="F124" s="2" t="n"/>
-      <c r="G124" s="2" t="n"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="2" t="n">
-        <v>-0.496</v>
-      </c>
-      <c r="B125" s="2" t="n">
-        <v>0.09399428571428588</v>
-      </c>
-      <c r="C125" s="2" t="n">
-        <v>0.09399428571428588</v>
-      </c>
-      <c r="D125" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E125" s="2" t="n"/>
-      <c r="F125" s="2" t="n"/>
-      <c r="G125" s="2" t="n"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="2" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="B126" s="2" t="n">
-        <v>0.09528904761904783</v>
-      </c>
-      <c r="C126" s="2" t="n">
-        <v>0.09528904761904783</v>
-      </c>
-      <c r="D126" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E126" s="2" t="n"/>
-      <c r="F126" s="2" t="n"/>
-      <c r="G126" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2627,7 +2211,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2653,33 +2237,17 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>-0.036</v>
+        <v>-0.248</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.008820933333333322</v>
+        <v>0.8230169751844406</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>-0.08799999999999999</v>
+        <v>-0.464</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>0.01009131904761904</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>-0.248</v>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>0.8275593190476197</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>-0.464</v>
-      </c>
-      <c r="B5" s="2" t="n">
         <v>0.0009703174603174353</v>
       </c>
     </row>
